--- a/data/trans_bre/Q45B_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/Q45B_R-Edad-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,14; 13,34</t>
+          <t>6,95; 13,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 10,23</t>
+          <t>3,4; 9,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 7,04</t>
+          <t>2,07; 6,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>201,77; 1036,68</t>
+          <t>185,68; 948,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>62,84; 427,06</t>
+          <t>65,32; 450,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>62,8; 1226,11</t>
+          <t>66,08; 1246,72</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,43; 18,45</t>
+          <t>11,48; 18,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,17; 18,14</t>
+          <t>10,99; 18,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,27; 8,63</t>
+          <t>3,38; 8,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>224,6; 681,83</t>
+          <t>223,96; 699,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>236,91; 767,99</t>
+          <t>224,84; 789,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>95,73; 568,52</t>
+          <t>93,81; 526,64</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 7,16</t>
+          <t>2,69; 7,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 7,03</t>
+          <t>2,4; 7,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,06</t>
+          <t>1,79; 4,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>80,56; 505,33</t>
+          <t>82,05; 500,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>47,77; 344,55</t>
+          <t>52,76; 339,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>124,73; 2521,63</t>
+          <t>129,55; 2494,64</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,61; 5,91</t>
+          <t>1,62; 6,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 4,57</t>
+          <t>-0,18; 4,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,29</t>
+          <t>1,04; 4,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>47,36; 1037,3</t>
+          <t>54,22; 1094,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 256,75</t>
+          <t>-5,2; 258,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,36; 1981,15</t>
+          <t>54,18; 1738,88</t>
         </is>
       </c>
     </row>
@@ -962,27 +962,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 2,56</t>
+          <t>-1,48; 2,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 2,6</t>
+          <t>-0,58; 2,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,45</t>
+          <t>0,47; 3,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-62,18; 368,1</t>
+          <t>-59,07; 365,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-42,65; 903,52</t>
+          <t>-52,88; 736,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1042,27 +1042,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 1,72</t>
+          <t>-0,01; 1,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 3,0</t>
+          <t>0,31; 2,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 0,0</t>
+          <t>-1,42; -0,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-50,62; —</t>
+          <t>-43,61; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 1008,14</t>
+          <t>-14,1; 980,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,85; 6,9</t>
+          <t>4,73; 6,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,9; 5,99</t>
+          <t>3,92; 6,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,95; 3,27</t>
+          <t>1,86; 3,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>198,07; 411,77</t>
+          <t>191,88; 415,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>132,9; 280,4</t>
+          <t>129,08; 286,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>166,69; 459,51</t>
+          <t>159,92; 476,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q45B_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/Q45B_R-Edad-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,95; 13,33</t>
+          <t>7,02; 13,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,4; 9,94</t>
+          <t>2,85; 9,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,07; 6,94</t>
+          <t>2,1; 7,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>185,68; 948,54</t>
+          <t>192,04; 1028,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>65,32; 450,14</t>
+          <t>51,92; 400,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>66,08; 1246,72</t>
+          <t>88,29; 1294,69</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,48; 18,56</t>
+          <t>11,75; 18,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,99; 18,04</t>
+          <t>11,08; 18,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,38; 8,81</t>
+          <t>3,47; 8,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>223,96; 699,66</t>
+          <t>239,98; 713,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>224,84; 789,63</t>
+          <t>217,82; 705,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>93,81; 526,64</t>
+          <t>95,24; 500,56</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 7,25</t>
+          <t>2,66; 7,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 7,16</t>
+          <t>2,65; 7,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,92</t>
+          <t>1,72; 4,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>82,05; 500,94</t>
+          <t>80,11; 498,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>52,76; 339,36</t>
+          <t>65,24; 366,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>129,55; 2494,64</t>
+          <t>117,43; 2286,3</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,62; 6,01</t>
+          <t>1,74; 6,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 4,75</t>
+          <t>-0,07; 4,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,26</t>
+          <t>1,14; 4,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>54,22; 1094,01</t>
+          <t>56,76; 1303,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 258,73</t>
+          <t>-4,29; 252,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>54,18; 1738,88</t>
+          <t>53,07; 1695,52</t>
         </is>
       </c>
     </row>
@@ -962,27 +962,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 2,63</t>
+          <t>-1,48; 2,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 2,64</t>
+          <t>-0,6; 2,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 3,03</t>
+          <t>0,7; 3,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-59,07; 365,32</t>
+          <t>-62,23; 431,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-52,88; 736,87</t>
+          <t>-48,78; 790,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1042,27 +1042,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 1,78</t>
+          <t>-0,11; 1,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,98</t>
+          <t>0,18; 3,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,42; -0,03</t>
+          <t>-1,33; 0,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-43,61; —</t>
+          <t>-54,06; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 980,54</t>
+          <t>-7,93; 998,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,73; 6,86</t>
+          <t>4,78; 6,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,92; 6,01</t>
+          <t>3,79; 5,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,27</t>
+          <t>1,9; 3,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>191,88; 415,01</t>
+          <t>199,37; 414,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>129,08; 286,18</t>
+          <t>123,53; 278,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>159,92; 476,64</t>
+          <t>148,54; 441,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q45B_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/Q45B_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,02; 13,51</t>
+          <t>7,14; 13,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 9,69</t>
+          <t>3,35; 10,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 7,14</t>
+          <t>2,17; 7,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>192,04; 1028,35</t>
+          <t>201,77; 1036,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>51,92; 400,69</t>
+          <t>62,84; 427,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>88,29; 1294,69</t>
+          <t>62,8; 1226,11</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,75; 18,79</t>
+          <t>11,43; 18,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,08; 18,03</t>
+          <t>11,17; 18,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,47; 8,87</t>
+          <t>3,27; 8,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>239,98; 713,91</t>
+          <t>224,6; 681,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>217,82; 705,92</t>
+          <t>236,91; 767,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>95,24; 500,56</t>
+          <t>95,73; 568,52</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,66; 7,05</t>
+          <t>2,62; 7,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 7,21</t>
+          <t>2,09; 7,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,91</t>
+          <t>1,72; 5,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>80,11; 498,69</t>
+          <t>80,56; 505,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>65,24; 366,55</t>
+          <t>47,77; 344,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>117,43; 2286,3</t>
+          <t>124,73; 2521,63</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 6,42</t>
+          <t>1,61; 5,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 4,74</t>
+          <t>-0,39; 4,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,35</t>
+          <t>1,03; 4,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>56,76; 1303,67</t>
+          <t>47,36; 1037,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 252,09</t>
+          <t>-12,44; 256,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>53,07; 1695,52</t>
+          <t>55,36; 1981,15</t>
         </is>
       </c>
     </row>
@@ -962,27 +962,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 2,71</t>
+          <t>-1,32; 2,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 2,58</t>
+          <t>-0,55; 2,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,3</t>
+          <t>0,7; 3,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-62,23; 431,59</t>
+          <t>-62,18; 368,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-48,78; 790,77</t>
+          <t>-42,65; 903,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1042,27 +1042,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 1,68</t>
+          <t>-0,08; 1,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,18; 3,15</t>
+          <t>0,17; 3,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 0,06</t>
+          <t>-1,35; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-54,06; —</t>
+          <t>-50,62; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 998,83</t>
+          <t>-21,77; 1008,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,78; 6,86</t>
+          <t>4,85; 6,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,79; 5,91</t>
+          <t>3,9; 5,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,29</t>
+          <t>1,95; 3,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>199,37; 414,44</t>
+          <t>198,07; 411,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>123,53; 278,81</t>
+          <t>132,9; 280,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>148,54; 441,71</t>
+          <t>166,69; 459,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q45B_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/Q45B_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -914,7 +914,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>221,23%</t>
+          <t>168,67%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>205,64%</t>
+          <t>247,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-79,94%</t>
+          <t>-76,6%</t>
         </is>
       </c>
     </row>
@@ -1042,27 +1042,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 1,72</t>
+          <t>-0,7; 2,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 3,0</t>
+          <t>-0,31; 4,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 0,0</t>
+          <t>-2,38; 0,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-50,62; —</t>
+          <t>-75,32; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 1008,14</t>
+          <t>-65,98; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1074,7 +1074,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,81</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,92</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>289,55%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>197,02%</t>
+          <t>165,86%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>274,29%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1122,124 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,0; 2,18</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-0,43; 3,32</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-55,9; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5,81</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4,92</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>289,55%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>197,02%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>274,29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>4,85; 6,9</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>3,9; 5,99</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>1,95; 3,27</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>198,07; 411,77</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>132,9; 280,4</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>166,69; 459,51</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1169,6 +1249,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/Q45B_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/Q45B_R-Edad-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,14; 13,34</t>
+          <t>6,99; 13,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 10,23</t>
+          <t>3,15; 9,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 7,04</t>
+          <t>2,0; 7,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>201,77; 1036,68</t>
+          <t>200,11; 1091,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>62,84; 427,06</t>
+          <t>58,54; 399,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>62,8; 1226,11</t>
+          <t>64,14; 1286,79</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,43; 18,45</t>
+          <t>11,44; 18,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,17; 18,14</t>
+          <t>11,27; 18,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,27; 8,63</t>
+          <t>3,47; 8,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>224,6; 681,83</t>
+          <t>229,61; 662,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>236,91; 767,99</t>
+          <t>217,43; 771,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>95,73; 568,52</t>
+          <t>89,14; 504,68</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 7,16</t>
+          <t>2,63; 6,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 7,03</t>
+          <t>2,51; 7,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,06</t>
+          <t>1,7; 4,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>80,56; 505,33</t>
+          <t>78,56; 521,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>47,77; 344,55</t>
+          <t>54,96; 363,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>124,73; 2521,63</t>
+          <t>136,96; 2786,17</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,61; 5,91</t>
+          <t>1,6; 5,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 4,57</t>
+          <t>-0,01; 4,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,29</t>
+          <t>0,91; 4,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>47,36; 1037,3</t>
+          <t>54,23; 1313,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 256,75</t>
+          <t>-8,46; 252,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,36; 1981,15</t>
+          <t>32,74; 1478,72</t>
         </is>
       </c>
     </row>
@@ -962,27 +962,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 2,56</t>
+          <t>-1,43; 2,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 2,6</t>
+          <t>-0,61; 2,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,45</t>
+          <t>0,7; 3,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-62,18; 368,1</t>
+          <t>-64,13; 346,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-42,65; 903,52</t>
+          <t>-51,27; 796,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1042,27 +1042,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 2,7</t>
+          <t>-0,64; 2,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 4,04</t>
+          <t>-0,36; 3,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 0,25</t>
+          <t>-2,64; -0,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-75,32; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-65,98; —</t>
+          <t>-81,29; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,18</t>
+          <t>0,0; 2,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 3,32</t>
+          <t>-0,3; 3,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-55,9; —</t>
+          <t>-46,1; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,85; 6,9</t>
+          <t>4,8; 6,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,9; 5,99</t>
+          <t>3,79; 6,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,95; 3,27</t>
+          <t>1,89; 3,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>198,07; 411,77</t>
+          <t>196,86; 418,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>132,9; 280,4</t>
+          <t>127,3; 288,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>166,69; 459,51</t>
+          <t>150,8; 451,15</t>
         </is>
       </c>
     </row>
